--- a/Valparai_Expenses.xlsx
+++ b/Valparai_Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/283806_cognizant_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB97BF78-F2B1-4B9A-8DED-CBDB841EEA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{CB97BF78-F2B1-4B9A-8DED-CBDB841EEA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B7DEE4-F0DD-490D-89E1-B9610AF7D0D5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7539F2EA-2199-45A8-9259-BCC9D5812B05}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>27th Sep</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Toll Bharani Car</t>
+  </si>
+  <si>
+    <t>Per Car</t>
   </si>
 </sst>
 </file>
@@ -345,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -357,19 +360,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,14 +705,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5549CBDB-9DF5-4817-BC76-7411F4F10996}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.453125" customWidth="1"/>
@@ -843,7 +842,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="5">
@@ -1065,11 +1064,11 @@
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="12">
         <f>SUM(B5,D6,D8,G6,J6,S6)</f>
         <v>10695</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <f>SUM(B11,B12)</f>
         <v>12995</v>
       </c>
@@ -1105,11 +1104,11 @@
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="12">
         <f>SUM(M4, P6)</f>
         <v>2300</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="17"/>
       <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1121,11 +1120,11 @@
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="12">
         <f>SUM(G12,M10,M5,P7,S7)</f>
         <v>2135</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <f>SUM(B13,B14)</f>
         <v>2235</v>
       </c>
@@ -1140,11 +1139,11 @@
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="12">
         <f>SUM(G13)</f>
         <v>100</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="17"/>
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1156,11 +1155,11 @@
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="12">
         <f>SUM(G14)</f>
         <v>160</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>160</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1169,36 +1168,36 @@
       <c r="G15" s="2">
         <v>1000</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="17"/>
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="2">
         <v>1485</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <f>(D20/3)</f>
-        <v>31517</v>
-      </c>
-      <c r="K16" s="18">
+        <v>32035.333333333332</v>
+      </c>
+      <c r="K16" s="14">
         <f>(J16-B5-D6-D8-G6-J6-M4-P6-S6)</f>
-        <v>18522</v>
+        <v>19040.333333333332</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.35">
@@ -1209,37 +1208,38 @@
         <f>SUM(G4:G16)</f>
         <v>10946</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <f>D20/3</f>
-        <v>31517</v>
-      </c>
-      <c r="K17" s="18">
+        <v>32035.333333333332</v>
+      </c>
+      <c r="K17" s="14">
         <f>(J17-G12-G13-M10-M5-P7-S7)</f>
-        <v>29282</v>
+        <v>29800.333333333332</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <f>D20/3</f>
-        <v>31517</v>
-      </c>
-      <c r="K18" s="18">
-        <v>31500</v>
+        <v>32035.333333333332</v>
+      </c>
+      <c r="K18" s="14">
+        <f>J18</f>
+        <v>32035.333333333332</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="16">
-        <f>SUM(B3,B4,D9,G17,J8,M11,P11,S11)</f>
-        <v>94551</v>
+      <c r="D20" s="13">
+        <f>SUM(B3,B4,B5,D9,G17,J8,M11,P11,S11)</f>
+        <v>96106</v>
       </c>
     </row>
   </sheetData>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC8C54E-2ADC-430D-9391-1C01BE41FE2D}">
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1450,7 +1450,9 @@
         <f>SUM(C2:C20)</f>
         <v>1555</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
